--- a/padronn-web/src/main/webapp/WEB-INF/formato/Reporte-padron.xlsx
+++ b/padronn-web/src/main/webapp/WEB-INF/formato/Reporte-padron.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="405" windowWidth="20700" windowHeight="9795"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="206">
   <si>
     <t>Lengua de la madre</t>
   </si>
@@ -662,6 +662,9 @@
     <t>ÁREA DEL CENTRO POBLADO</t>
   </si>
   <si>
+    <t>ESTABLECIMIENTO DE SALUD DE ATENCIÓN</t>
+  </si>
+  <si>
     <t>CODIGO RENAES ATENCIÓN</t>
   </si>
   <si>
@@ -725,24 +728,6 @@
   </si>
   <si>
     <t>CÓDIGO UNICO DE IDENTIDAD (CUI)</t>
-  </si>
-  <si>
-    <t>FRECUENCIA DE ATENCION</t>
-  </si>
-  <si>
-    <t>ULTIMO ESTABLECIMIENTO DE SALUD DE ATENCIÓN</t>
-  </si>
-  <si>
-    <t>ESTADO DE REGISTRO</t>
-  </si>
-  <si>
-    <t>ESTADO REGISTRO
-0=INACTIVO
-1= ACTIVO
-2=ACTIVO OBSERVADO</t>
-  </si>
-  <si>
-    <t>¿MENOR ENCONTRADO?</t>
   </si>
 </sst>
 </file>
@@ -810,7 +795,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1080,12 +1065,12 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
-        <color theme="0"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color theme="0"/>
@@ -1094,22 +1079,15 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1128,13 +1106,60 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1145,8 +1170,25 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1157,68 +1199,53 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1226,60 +1253,35 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="32">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1783,10 +1785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BG5"/>
+  <dimension ref="A1:BD5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="W5" sqref="W5"/>
+    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
+      <selection activeCell="AR12" sqref="AR12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1812,408 +1814,391 @@
     <col min="27" max="27" width="16.7109375" customWidth="1"/>
     <col min="28" max="28" width="21.85546875" customWidth="1"/>
     <col min="29" max="29" width="15.7109375" customWidth="1"/>
-    <col min="30" max="31" width="22.85546875" customWidth="1"/>
-    <col min="32" max="32" width="15.140625" customWidth="1"/>
-    <col min="33" max="33" width="17.7109375" customWidth="1"/>
-    <col min="34" max="34" width="23.42578125" customWidth="1"/>
-    <col min="35" max="35" width="40.85546875" customWidth="1"/>
-    <col min="36" max="36" width="22.5703125" customWidth="1"/>
-    <col min="37" max="37" width="38.28515625" customWidth="1"/>
-    <col min="38" max="38" width="28" customWidth="1"/>
-    <col min="39" max="39" width="16.140625" customWidth="1"/>
-    <col min="40" max="40" width="20.85546875" customWidth="1"/>
-    <col min="41" max="41" width="21.85546875" customWidth="1"/>
-    <col min="42" max="42" width="22.85546875" customWidth="1"/>
-    <col min="44" max="44" width="22" customWidth="1"/>
-    <col min="45" max="45" width="26.7109375" customWidth="1"/>
-    <col min="46" max="46" width="28.7109375" customWidth="1"/>
-    <col min="47" max="47" width="29.85546875" customWidth="1"/>
-    <col min="48" max="48" width="26.5703125" customWidth="1"/>
-    <col min="49" max="49" width="32.5703125" customWidth="1"/>
-    <col min="50" max="50" width="26.42578125" customWidth="1"/>
-    <col min="51" max="51" width="30.5703125" customWidth="1"/>
-    <col min="52" max="52" width="20.85546875" customWidth="1"/>
-    <col min="53" max="53" width="14.5703125" customWidth="1"/>
-    <col min="54" max="54" width="14.28515625" customWidth="1"/>
-    <col min="55" max="55" width="29" customWidth="1"/>
-    <col min="56" max="56" width="20.28515625" customWidth="1"/>
-    <col min="57" max="57" width="14.28515625" customWidth="1"/>
-    <col min="58" max="58" width="16.28515625" customWidth="1"/>
+    <col min="30" max="30" width="22.85546875" customWidth="1"/>
+    <col min="31" max="31" width="15.140625" customWidth="1"/>
+    <col min="32" max="32" width="17.7109375" customWidth="1"/>
+    <col min="33" max="33" width="23.42578125" customWidth="1"/>
+    <col min="34" max="34" width="40.85546875" customWidth="1"/>
+    <col min="35" max="35" width="22.5703125" customWidth="1"/>
+    <col min="36" max="36" width="38.28515625" customWidth="1"/>
+    <col min="37" max="37" width="28" customWidth="1"/>
+    <col min="38" max="38" width="16.140625" customWidth="1"/>
+    <col min="39" max="39" width="20.85546875" customWidth="1"/>
+    <col min="40" max="40" width="21.85546875" customWidth="1"/>
+    <col min="41" max="41" width="22.85546875" customWidth="1"/>
+    <col min="43" max="43" width="22" customWidth="1"/>
+    <col min="44" max="44" width="26.7109375" customWidth="1"/>
+    <col min="45" max="45" width="28.7109375" customWidth="1"/>
+    <col min="46" max="46" width="29.85546875" customWidth="1"/>
+    <col min="47" max="47" width="26.5703125" customWidth="1"/>
+    <col min="48" max="48" width="32.5703125" customWidth="1"/>
+    <col min="49" max="49" width="26.42578125" customWidth="1"/>
+    <col min="50" max="50" width="30.5703125" customWidth="1"/>
+    <col min="51" max="51" width="13.85546875" customWidth="1"/>
+    <col min="52" max="52" width="14.28515625" customWidth="1"/>
+    <col min="53" max="53" width="29" customWidth="1"/>
+    <col min="54" max="54" width="20.28515625" customWidth="1"/>
+    <col min="55" max="55" width="14.28515625" customWidth="1"/>
+    <col min="56" max="56" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="29"/>
-      <c r="AG1" s="29"/>
-      <c r="AH1" s="29"/>
-      <c r="AI1" s="29"/>
-      <c r="AJ1" s="29"/>
-      <c r="AK1" s="30"/>
-      <c r="AL1" s="31" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="41"/>
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="41"/>
+      <c r="AJ1" s="42"/>
+      <c r="AK1" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="32"/>
-      <c r="AO1" s="32"/>
-      <c r="AP1" s="32"/>
-      <c r="AQ1" s="32"/>
-      <c r="AR1" s="32"/>
-      <c r="AS1" s="32"/>
-      <c r="AT1" s="33"/>
-      <c r="AU1" s="31" t="s">
+      <c r="AL1" s="29"/>
+      <c r="AM1" s="29"/>
+      <c r="AN1" s="29"/>
+      <c r="AO1" s="29"/>
+      <c r="AP1" s="29"/>
+      <c r="AQ1" s="29"/>
+      <c r="AR1" s="29"/>
+      <c r="AS1" s="39"/>
+      <c r="AT1" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="AV1" s="32"/>
-      <c r="AW1" s="32"/>
-      <c r="AX1" s="32"/>
-      <c r="AY1" s="33"/>
-      <c r="AZ1" s="7" t="s">
+      <c r="AU1" s="29"/>
+      <c r="AV1" s="29"/>
+      <c r="AW1" s="29"/>
+      <c r="AX1" s="33"/>
+      <c r="AY1" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="BA1" s="7"/>
-      <c r="BB1" s="7"/>
-      <c r="BC1" s="7"/>
-      <c r="BD1" s="7"/>
-      <c r="BE1" s="7"/>
-      <c r="BF1" s="7"/>
-      <c r="BG1" s="6"/>
-    </row>
-    <row r="2" spans="1:59" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="AZ1" s="29"/>
+      <c r="BA1" s="29"/>
+      <c r="BB1" s="29"/>
+      <c r="BC1" s="29"/>
+      <c r="BD1" s="29"/>
+    </row>
+    <row r="2" spans="1:56" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="9" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="14" t="s">
+      <c r="M2" s="21"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="P2" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="Q2" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="R2" s="14" t="s">
+      <c r="R2" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="S2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="T2" s="14" t="s">
+      <c r="T2" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="U2" s="14" t="s">
+      <c r="U2" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="V2" s="14" t="s">
+      <c r="V2" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="W2" s="14" t="s">
+      <c r="W2" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="X2" s="14" t="s">
+      <c r="X2" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="Y2" s="14" t="s">
+      <c r="Y2" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="Z2" s="14" t="s">
+      <c r="Z2" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="AA2" s="19" t="s">
+      <c r="AA2" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="AG2" s="20"/>
-      <c r="AH2" s="5" t="s">
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="AI2" s="5" t="s">
+      <c r="AH2" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="AJ2" s="19" t="s">
+      <c r="AI2" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="AJ2" s="18"/>
+      <c r="AK2" s="36"/>
+      <c r="AL2" s="32"/>
+      <c r="AM2" s="32"/>
+      <c r="AN2" s="32"/>
+      <c r="AO2" s="32"/>
+      <c r="AP2" s="32"/>
+      <c r="AQ2" s="32"/>
+      <c r="AR2" s="32"/>
+      <c r="AS2" s="40"/>
+      <c r="AT2" s="38"/>
+      <c r="AU2" s="32"/>
+      <c r="AV2" s="32"/>
+      <c r="AW2" s="32"/>
+      <c r="AX2" s="34"/>
+      <c r="AY2" s="36"/>
+      <c r="AZ2" s="32"/>
+      <c r="BA2" s="32"/>
+      <c r="BB2" s="32"/>
+      <c r="BC2" s="32"/>
+      <c r="BD2" s="32"/>
+    </row>
+    <row r="3" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L3" s="20"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB3" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC3" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="AD3" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE3" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="AF3" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="AG3" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AH3" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="AI3" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="AJ3" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="AK2" s="20"/>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="35"/>
-      <c r="AR2" s="35"/>
-      <c r="AS2" s="35"/>
-      <c r="AT2" s="36"/>
-      <c r="AU2" s="34"/>
-      <c r="AV2" s="35"/>
-      <c r="AW2" s="35"/>
-      <c r="AX2" s="35"/>
-      <c r="AY2" s="36"/>
-      <c r="AZ2" s="8"/>
-      <c r="BA2" s="8"/>
-      <c r="BB2" s="8"/>
-      <c r="BC2" s="8"/>
-      <c r="BD2" s="8"/>
-      <c r="BE2" s="8"/>
-      <c r="BF2" s="8"/>
-      <c r="BG2" s="6"/>
-    </row>
-    <row r="3" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="18" t="s">
+      <c r="AK3" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL3" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM3" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="AN3" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO3" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP3" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="AQ3" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="AR3" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="AS3" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="AT3" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="AU3" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="AV3" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="H3" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="I3" s="18" t="s">
+      <c r="AW3" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="AX3" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="J3" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="14"/>
-      <c r="AA3" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="AB3" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC3" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="AD3" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE3" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="AF3" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="AG3" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="AH3" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI3" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="AJ3" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="AK3" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="AL3" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="AM3" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="AN3" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="AO3" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="AP3" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="AQ3" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR3" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="AS3" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="AT3" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="AU3" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="AV3" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="AW3" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="AX3" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="AY3" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="AZ3" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="BA3" s="14" t="s">
+      <c r="AY3" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="BB3" s="14" t="s">
+      <c r="AZ3" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="BC3" s="14" t="s">
+      <c r="BA3" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="BD3" s="14" t="s">
+      <c r="BB3" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="BE3" s="14" t="s">
+      <c r="BC3" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="BF3" s="9" t="s">
+      <c r="BD3" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="BG3" s="6"/>
-    </row>
-    <row r="4" spans="1:59" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="10"/>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="10"/>
-      <c r="AF4" s="10"/>
-      <c r="AG4" s="10"/>
-      <c r="AH4" s="10"/>
-      <c r="AI4" s="10"/>
-      <c r="AJ4" s="10"/>
-      <c r="AK4" s="16"/>
+    </row>
+    <row r="4" spans="1:56" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="12"/>
+      <c r="AK4" s="28"/>
       <c r="AL4" s="12"/>
-      <c r="AM4" s="16"/>
-      <c r="AN4" s="16"/>
-      <c r="AO4" s="16"/>
-      <c r="AP4" s="16"/>
-      <c r="AQ4" s="16"/>
-      <c r="AR4" s="16"/>
-      <c r="AS4" s="12"/>
-      <c r="AT4" s="12"/>
-      <c r="AU4" s="12"/>
-      <c r="AV4" s="10"/>
-      <c r="AW4" s="10"/>
-      <c r="AX4" s="10"/>
-      <c r="AY4" s="16"/>
-      <c r="AZ4" s="16"/>
-      <c r="BA4" s="10"/>
-      <c r="BB4" s="10"/>
-      <c r="BC4" s="10"/>
-      <c r="BD4" s="10"/>
-      <c r="BE4" s="10"/>
-      <c r="BF4" s="10"/>
-      <c r="BG4" s="6"/>
-    </row>
-    <row r="5" spans="1:59" ht="108" x14ac:dyDescent="0.25">
+      <c r="AM4" s="12"/>
+      <c r="AN4" s="12"/>
+      <c r="AO4" s="12"/>
+      <c r="AP4" s="12"/>
+      <c r="AQ4" s="12"/>
+      <c r="AR4" s="28"/>
+      <c r="AS4" s="28"/>
+      <c r="AT4" s="28"/>
+      <c r="AU4" s="8"/>
+      <c r="AV4" s="8"/>
+      <c r="AW4" s="8"/>
+      <c r="AX4" s="12"/>
+      <c r="AY4" s="8"/>
+      <c r="AZ4" s="8"/>
+      <c r="BA4" s="8"/>
+      <c r="BB4" s="8"/>
+      <c r="BC4" s="8"/>
+      <c r="BD4" s="8"/>
+    </row>
+    <row r="5" spans="1:56" ht="108" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>154</v>
       </c>
@@ -2227,10 +2212,10 @@
         <v>182</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>140</v>
@@ -2242,7 +2227,7 @@
         <v>142</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>143</v>
@@ -2257,7 +2242,7 @@
         <v>185</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>136</v>
@@ -2269,7 +2254,7 @@
         <v>138</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="T5" s="2" t="s">
         <v>111</v>
@@ -2281,7 +2266,7 @@
         <v>171</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>209</v>
+        <v>170</v>
       </c>
       <c r="X5" s="2" t="s">
         <v>174</v>
@@ -2293,109 +2278,102 @@
         <v>173</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AB5" s="3" t="s">
         <v>158</v>
       </c>
       <c r="AC5" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AD5" s="3" t="s">
         <v>139</v>
       </c>
       <c r="AE5" s="3" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="AF5" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="AG5" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="AG5" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="AH5" s="2" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="AI5" s="2" t="s">
-        <v>179</v>
+        <v>120</v>
       </c>
       <c r="AJ5" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK5" s="2" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="AL5" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AM5" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN5" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO5" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AP5" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="AQ5" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="AR5" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AS5" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AT5" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="AM5" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="AN5" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="AO5" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="AP5" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="AQ5" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR5" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="AS5" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="AT5" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="AU5" s="2" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="AV5" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AW5" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AX5" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AY5" s="2" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="AZ5" s="2" t="s">
-        <v>208</v>
+        <v>134</v>
       </c>
       <c r="BA5" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BB5" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BC5" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="BD5" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="BE5" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="BF5" s="2" t="s">
+      <c r="BD5" s="5" t="s">
         <v>160</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="62">
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="A1:AK1"/>
+  <mergeCells count="60">
+    <mergeCell ref="A1:AJ1"/>
+    <mergeCell ref="AK1:AS2"/>
+    <mergeCell ref="AT1:AX2"/>
+    <mergeCell ref="AY1:BD2"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="L2:N4"/>
@@ -2404,9 +2382,15 @@
     <mergeCell ref="Q2:Q4"/>
     <mergeCell ref="AC3:AC4"/>
     <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="AE3:AE4"/>
     <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="AG3:AG4"/>
     <mergeCell ref="R2:R4"/>
+    <mergeCell ref="S2:S4"/>
+    <mergeCell ref="T2:T4"/>
+    <mergeCell ref="U2:U4"/>
+    <mergeCell ref="V2:V4"/>
+    <mergeCell ref="W2:W4"/>
+    <mergeCell ref="AI2:AJ2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:F4"/>
     <mergeCell ref="G3:G4"/>
@@ -2420,12 +2404,10 @@
     <mergeCell ref="Y2:Y4"/>
     <mergeCell ref="Z2:Z4"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="T2:T4"/>
-    <mergeCell ref="U2:U4"/>
-    <mergeCell ref="V2:V4"/>
-    <mergeCell ref="W2:W4"/>
-    <mergeCell ref="S2:S4"/>
-    <mergeCell ref="AS3:AS4"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AR3:AR4"/>
+    <mergeCell ref="AG3:AG4"/>
     <mergeCell ref="AH3:AH4"/>
     <mergeCell ref="AI3:AI4"/>
     <mergeCell ref="AJ3:AJ4"/>
@@ -2436,166 +2418,161 @@
     <mergeCell ref="AO3:AO4"/>
     <mergeCell ref="AP3:AP4"/>
     <mergeCell ref="AQ3:AQ4"/>
-    <mergeCell ref="AR3:AR4"/>
-    <mergeCell ref="AZ1:BF2"/>
-    <mergeCell ref="BF3:BF4"/>
+    <mergeCell ref="BD3:BD4"/>
+    <mergeCell ref="AS3:AS4"/>
     <mergeCell ref="AT3:AT4"/>
     <mergeCell ref="AU3:AU4"/>
     <mergeCell ref="AV3:AV4"/>
     <mergeCell ref="AW3:AW4"/>
     <mergeCell ref="AX3:AX4"/>
     <mergeCell ref="AY3:AY4"/>
+    <mergeCell ref="AZ3:AZ4"/>
     <mergeCell ref="BA3:BA4"/>
     <mergeCell ref="BB3:BB4"/>
     <mergeCell ref="BC3:BC4"/>
-    <mergeCell ref="BD3:BD4"/>
-    <mergeCell ref="BE3:BE4"/>
-    <mergeCell ref="AZ3:AZ4"/>
-    <mergeCell ref="AL1:AT2"/>
-    <mergeCell ref="AU1:AY2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A2 AU1 AZ1 AH3:AK3 AU3:BA3 AU5:BA5 G3 C3 Y5:Z5 AH5:AK5 BC5:BE5 BC3:BE3 P5:U5 P2:U2">
-    <cfRule type="expression" dxfId="28" priority="29">
+  <conditionalFormatting sqref="A2 AT1 AY1 AG3:AJ3 AT3:AY3 AT5:AY5 G3 C3 Y5:Z5 AG5:AJ5 BA5:BC5 BA3:BC3 P5:U5 P2:U2">
+    <cfRule type="expression" dxfId="31" priority="29">
       <formula>_xludf.MOD(_xludf.ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="27" priority="28">
+    <cfRule type="expression" dxfId="30" priority="28">
       <formula>_xludf.MOD(_xludf.ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF3">
-    <cfRule type="expression" dxfId="26" priority="27">
+  <conditionalFormatting sqref="BD3">
+    <cfRule type="expression" dxfId="29" priority="27">
       <formula>_xludf.MOD(_xludf.ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF5">
-    <cfRule type="expression" dxfId="25" priority="26">
+  <conditionalFormatting sqref="BD5">
+    <cfRule type="expression" dxfId="28" priority="26">
       <formula>_xludf.MOD(_xludf.ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF2 AF5:AG5">
-    <cfRule type="expression" dxfId="24" priority="25">
+  <conditionalFormatting sqref="AE2 AE5:AF5">
+    <cfRule type="expression" dxfId="27" priority="25">
       <formula>_xludf.MOD(_xludf.ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2">
-    <cfRule type="expression" dxfId="23" priority="24">
+    <cfRule type="expression" dxfId="26" priority="24">
       <formula>_xludf.MOD(_xludf.ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z2">
-    <cfRule type="expression" dxfId="22" priority="23">
+    <cfRule type="expression" dxfId="25" priority="23">
       <formula>_xludf.MOD(_xludf.ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="expression" dxfId="21" priority="19">
+    <cfRule type="expression" dxfId="24" priority="19">
       <formula>_xludf.MOD(_xludf.ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5:N5">
-    <cfRule type="expression" dxfId="20" priority="17">
+    <cfRule type="expression" dxfId="23" priority="17">
       <formula>_xludf.MOD(_xludf.ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3 I3 B5 F5:K5">
-    <cfRule type="expression" dxfId="19" priority="22">
+    <cfRule type="expression" dxfId="22" priority="22">
       <formula>_xludf.MOD(_xludf.ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="expression" dxfId="18" priority="21">
+    <cfRule type="expression" dxfId="21" priority="21">
       <formula>_xludf.MOD(_xludf.ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3">
-    <cfRule type="expression" dxfId="17" priority="20">
+    <cfRule type="expression" dxfId="20" priority="20">
       <formula>_xludf.MOD(_xludf.ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2">
-    <cfRule type="expression" dxfId="16" priority="18">
+    <cfRule type="expression" dxfId="19" priority="18">
       <formula>_xludf.MOD(_xludf.ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL1 AL5:AT5 AL3:AS3">
-    <cfRule type="expression" dxfId="15" priority="16">
+  <conditionalFormatting sqref="AK1 AK5:AS5 AK3:AR3">
+    <cfRule type="expression" dxfId="18" priority="16">
       <formula>_xludf.MOD(_xludf.ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="17" priority="15">
       <formula>_xludf.MOD(_xludf.ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="16" priority="14">
       <formula>_xludf.MOD(_xludf.ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="15" priority="13">
       <formula>_xludf.MOD(_xludf.ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X5">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="14" priority="12">
       <formula>_xludf.MOD(_xludf.ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="13" priority="11">
       <formula>_xludf.MOD(_xludf.ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W5">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="12" priority="10">
       <formula>_xludf.MOD(_xludf.ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="11" priority="9">
       <formula>_xludf.MOD(_xludf.ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA5:AB5">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="10" priority="8">
       <formula>_xludf.MOD(_xludf.ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA2">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="9" priority="7">
       <formula>_xludf.MOD(_xludf.ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC2 AC5:AE5">
-    <cfRule type="expression" dxfId="5" priority="6">
+  <conditionalFormatting sqref="AC2 AC5:AD5">
+    <cfRule type="expression" dxfId="8" priority="6">
       <formula>_xludf.MOD(_xludf.ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB5 BB3">
-    <cfRule type="expression" dxfId="4" priority="5">
+  <conditionalFormatting sqref="AZ5 AZ3">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>_xludf.MOD(_xludf.ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>_xludf.MOD(_xludf.ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>_xludf.MOD(_xludf.ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V5">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>_xludf.MOD(_xludf.ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>_xludf.MOD(_xludf.ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2623,31 +2600,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:21" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="D2" s="41" t="s">
+      <c r="B2" s="25"/>
+      <c r="D2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="G2" s="41" t="s">
+      <c r="E2" s="23"/>
+      <c r="G2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="41"/>
-      <c r="J2" s="41" t="s">
+      <c r="H2" s="23"/>
+      <c r="J2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="M2" s="41" t="s">
+      <c r="K2" s="23"/>
+      <c r="M2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="41"/>
+      <c r="N2" s="23"/>
       <c r="O2" s="1"/>
-      <c r="Q2" s="41" t="s">
+      <c r="Q2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="41"/>
+      <c r="R2" s="23"/>
       <c r="T2" s="1" t="s">
         <v>5</v>
       </c>
